--- a/ig/core/StructureDefinition-medcom-core-encounter.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-encounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3139" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="519">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.4.0</t>
+    <t>3.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-27T14:13:17+02:00</t>
+    <t>2025-09-24T12:42:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -382,7 +382,7 @@
 </t>
   </si>
   <si>
-    <t>Text summary of the resource, for human interpretation</t>
+    <t>The narrative text SHALL always be included when exchanging a MedCom FHIR Bundle.</t>
   </si>
   <si>
     <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
@@ -395,6 +395,109 @@
   </si>
   <si>
     <t>Act.text?</t>
+  </si>
+  <si>
+    <t>Encounter.text.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Encounter.text.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>Encounter.text.status</t>
+  </si>
+  <si>
+    <t>generated | extensions | additional | empty</t>
+  </si>
+  <si>
+    <t>The status of the narrative - whether it's entirely generated (from just the defined data or the extensions too), or whether a human authored it and it may contain additional data.</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of a resource narrative.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/narrative-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Narrative.status</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Encounter.text.div</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xhtml
+</t>
+  </si>
+  <si>
+    <t>Limited xhtml content</t>
+  </si>
+  <si>
+    <t>The actual narrative content, a stripped down version of XHTML.</t>
+  </si>
+  <si>
+    <t>The contents of the html element are an XHTML fragment containing only the basic html formatting elements described in chapters 7-11 and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained stylesheets. The XHTML content SHALL NOT contain a head, a body, external stylesheet references, scripts, forms, base/link/xlink, frames, iframes and objects.</t>
+  </si>
+  <si>
+    <t>Narrative.div</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+txt-1:The narrative SHALL contain only the basic html formatting elements and attributes described in chapters 7-11 (except section 4 of chapter 9) and 15 of the HTML 4.0 standard, &lt;a&gt; elements (either name or href), images and internally contained style attributes {htmlChecks()}txt-2:The narrative SHALL have some non-whitespace content {htmlChecks()}</t>
   </si>
   <si>
     <t>Encounter.contained</t>
@@ -420,34 +523,13 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Encounter.extension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
   </si>
   <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
     <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
     <t>Encounter.modifierExtension</t>
@@ -503,9 +585,6 @@
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>Current state of the encounter.</t>
   </si>
   <si>
@@ -540,32 +619,10 @@
     <t>The current status is always found in the current version of the resource, not the status history.</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>Encounter.statusHistory.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>Encounter.statusHistory.modifierExtension</t>
@@ -659,7 +716,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -732,7 +789,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -793,9 +850,6 @@
 </t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>Event.context</t>
   </si>
   <si>
@@ -809,13 +863,6 @@
   </si>
   <si>
     <t>Encounter.episodeOfCare.extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
     <t>Encounter.episodeOfCare.reference</t>
@@ -923,20 +970,7 @@
 </t>
   </si>
   <si>
-    <t>An identifier intended for computation</t>
-  </si>
-  <si>
     <t>Shall contain the id of the episode of care reported to the Danish National Patient Registry if known</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
-    <t>II - The Identifier class is a little looser than the v3 type II because it allows URIs as well as registered OIDs or GUIDs.  Also maps to Role[classCode=IDENT]</t>
-  </si>
-  <si>
-    <t>CX / EI (occasionally, more often EI maps to a resource id or a URL)</t>
   </si>
   <si>
     <t>Encounter.episodeOfCare:lpr3identifier.display</t>
@@ -1913,7 +1947,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN87"/>
+  <dimension ref="A1:AN91"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1922,17 +1956,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="45.66015625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="44.98828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.76953125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.90234375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.98828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.89453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="11.03125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="93.87109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="82.1796875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1941,26 +1975,26 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.84375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="15.71484375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="16.08984375" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.3125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="72.99609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="71.77734375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.171875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="40.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.98828125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.3046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.98828125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.87890625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="61.5625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.953125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="39.16015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="26.71875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="137.703125" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" width="184.87890625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="79.453125" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2216,7 +2250,7 @@
         <v>87</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>79</v>
@@ -2670,7 +2704,7 @@
         <v>87</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I7" t="s" s="2">
         <v>79</v>
@@ -2774,14 +2808,14 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>124</v>
+        <v>79</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>79</v>
@@ -2793,17 +2827,15 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L8" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="M8" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="M8" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>128</v>
-      </c>
+      <c r="N8" s="2"/>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
         <v>79</v>
@@ -2852,13 +2884,13 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>79</v>
@@ -2870,7 +2902,7 @@
         <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM8" t="s" s="2">
         <v>79</v>
@@ -2881,14 +2913,14 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -2907,16 +2939,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>134</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2954,19 +2986,19 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>77</v>
@@ -2978,13 +3010,13 @@
         <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s" s="2">
         <v>79</v>
@@ -2995,46 +3027,42 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O10" t="s" s="2">
         <v>142</v>
       </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
         <v>79</v>
       </c>
@@ -3058,13 +3086,13 @@
         <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>79</v>
@@ -3082,25 +3110,25 @@
         <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AM10" t="s" s="2">
         <v>79</v>
@@ -3111,10 +3139,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3122,30 +3150,32 @@
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>147</v>
-      </c>
-      <c r="N11" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="N11" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -3194,71 +3224,71 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>99</v>
+        <v>154</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>148</v>
+        <v>79</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>150</v>
+        <v>79</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>151</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>79</v>
+        <v>156</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>107</v>
+        <v>157</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3284,13 +3314,13 @@
         <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>79</v>
@@ -3308,43 +3338,43 @@
         <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>159</v>
+        <v>79</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>161</v>
+        <v>79</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>162</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
@@ -3363,16 +3393,16 @@
         <v>79</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>165</v>
+        <v>132</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>167</v>
+        <v>134</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3422,7 +3452,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>77</v>
@@ -3434,13 +3464,13 @@
         <v>79</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>79</v>
@@ -3451,42 +3481,46 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O14" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P14" t="s" s="2">
         <v>79</v>
       </c>
@@ -3534,25 +3568,25 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>79</v>
@@ -3563,14 +3597,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3586,20 +3620,18 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>134</v>
+        <v>172</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="N15" s="2"/>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
         <v>79</v>
@@ -3648,7 +3680,7 @@
         <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>77</v>
@@ -3660,41 +3692,41 @@
         <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>79</v>
+        <v>174</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>79</v>
+        <v>176</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>79</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>88</v>
@@ -3703,7 +3735,7 @@
         <v>88</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>133</v>
+        <v>107</v>
       </c>
       <c r="L16" t="s" s="2">
         <v>179</v>
@@ -3712,11 +3744,9 @@
         <v>180</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3740,13 +3770,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3764,39 +3794,39 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>79</v>
+        <v>184</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>130</v>
+        <v>185</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>79</v>
+        <v>186</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>79</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3804,10 +3834,10 @@
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>79</v>
@@ -3819,15 +3849,17 @@
         <v>79</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="N17" s="2"/>
+        <v>191</v>
+      </c>
+      <c r="N17" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -3852,13 +3884,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>157</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>158</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3876,13 +3908,13 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI17" t="s" s="2">
         <v>79</v>
@@ -3894,7 +3926,7 @@
         <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>79</v>
@@ -3905,10 +3937,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3916,7 +3948,7 @@
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G18" t="s" s="2">
         <v>87</v>
@@ -3931,13 +3963,13 @@
         <v>79</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3988,10 +4020,10 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>183</v>
+        <v>127</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH18" t="s" s="2">
         <v>87</v>
@@ -4000,13 +4032,13 @@
         <v>79</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>79</v>
@@ -4017,41 +4049,43 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>187</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>188</v>
+        <v>131</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>189</v>
+        <v>132</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="N19" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N19" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
         <v>79</v>
@@ -4076,11 +4110,13 @@
         <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="Y19" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="Z19" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>79</v>
@@ -4098,31 +4134,31 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>187</v>
+        <v>138</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>192</v>
+        <v>128</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20" hidden="true">
@@ -4134,7 +4170,7 @@
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4147,22 +4183,26 @@
         <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>164</v>
+        <v>131</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="N20" s="2"/>
-      <c r="O20" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O20" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P20" t="s" s="2">
         <v>79</v>
       </c>
@@ -4210,7 +4250,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>77</v>
@@ -4222,13 +4262,13 @@
         <v>79</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>79</v>
@@ -4239,10 +4279,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4250,7 +4290,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>87</v>
@@ -4265,13 +4305,13 @@
         <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>170</v>
+        <v>107</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>171</v>
+        <v>179</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4298,13 +4338,13 @@
         <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>182</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>183</v>
       </c>
       <c r="AA21" t="s" s="2">
         <v>79</v>
@@ -4322,10 +4362,10 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>87</v>
@@ -4334,13 +4374,13 @@
         <v>79</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>79</v>
@@ -4351,21 +4391,21 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4377,17 +4417,15 @@
         <v>79</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>133</v>
+        <v>202</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>134</v>
+        <v>203</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4436,25 +4474,25 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>79</v>
@@ -4465,46 +4503,42 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>133</v>
+        <v>206</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N23" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O23" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="N23" s="2"/>
+      <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
         <v>79</v>
       </c>
@@ -4528,13 +4562,11 @@
         <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y23" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="Y23" s="2"/>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>79</v>
@@ -4552,39 +4584,39 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>181</v>
+        <v>205</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>79</v>
+        <v>212</v>
       </c>
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4592,10 +4624,10 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>79</v>
@@ -4607,13 +4639,13 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>202</v>
+        <v>214</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>203</v>
+        <v>215</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4640,13 +4672,13 @@
         <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>79</v>
@@ -4664,13 +4696,13 @@
         <v>79</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>79</v>
@@ -4682,7 +4714,7 @@
         <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>79</v>
@@ -4693,10 +4725,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>207</v>
+        <v>216</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4704,7 +4736,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>87</v>
@@ -4719,13 +4751,13 @@
         <v>79</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>208</v>
+        <v>125</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>209</v>
+        <v>126</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4776,10 +4808,10 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>207</v>
+        <v>127</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>87</v>
@@ -4788,13 +4820,13 @@
         <v>79</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>79</v>
@@ -4805,14 +4837,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>210</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4828,19 +4860,19 @@
         <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>212</v>
+        <v>132</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>213</v>
+        <v>133</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>214</v>
+        <v>134</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4866,13 +4898,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>216</v>
+        <v>79</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -4890,7 +4922,7 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>210</v>
+        <v>138</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>77</v>
@@ -4902,59 +4934,63 @@
         <v>79</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>219</v>
+        <v>128</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>193</v>
+        <v>79</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J27" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -4978,13 +5014,13 @@
         <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>224</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>225</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>79</v>
@@ -5002,39 +5038,39 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>221</v>
+        <v>199</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>218</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>226</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5042,7 +5078,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>87</v>
@@ -5057,13 +5093,13 @@
         <v>79</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5090,13 +5126,13 @@
         <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>79</v>
@@ -5114,10 +5150,10 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH28" t="s" s="2">
         <v>87</v>
@@ -5132,25 +5168,25 @@
         <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>231</v>
+        <v>128</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>235</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
@@ -5160,26 +5196,24 @@
         <v>87</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>236</v>
+        <v>202</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5228,10 +5262,10 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>87</v>
@@ -5243,24 +5277,24 @@
         <v>99</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>240</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>241</v>
+        <v>128</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>243</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5274,7 +5308,7 @@
         <v>78</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>79</v>
@@ -5283,15 +5317,17 @@
         <v>88</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>231</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>232</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5316,29 +5352,31 @@
         <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>79</v>
+        <v>234</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>79</v>
+        <v>235</v>
       </c>
       <c r="AA30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AC30" s="2"/>
+        <v>79</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>79</v>
+      </c>
       <c r="AD30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>77</v>
@@ -5353,24 +5391,24 @@
         <v>99</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>168</v>
+        <v>237</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>252</v>
+        <v>238</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5390,16 +5428,16 @@
         <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>171</v>
+        <v>240</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>172</v>
+        <v>241</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5426,13 +5464,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>242</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>243</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5450,7 +5488,7 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>77</v>
@@ -5462,38 +5500,38 @@
         <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>236</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>79</v>
+        <v>244</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5505,17 +5543,15 @@
         <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>134</v>
+        <v>246</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N32" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
         <v>79</v>
@@ -5540,77 +5576,77 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>248</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AF32" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>168</v>
-      </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>79</v>
+        <v>251</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>79</v>
+        <v>253</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G33" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I33" t="s" s="2">
         <v>79</v>
@@ -5619,16 +5655,16 @@
         <v>88</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>170</v>
+        <v>254</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -5678,7 +5714,7 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>77</v>
@@ -5687,30 +5723,30 @@
         <v>87</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AJ33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>130</v>
+        <v>259</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>79</v>
+        <v>260</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5721,10 +5757,10 @@
         <v>77</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I34" t="s" s="2">
         <v>79</v>
@@ -5733,7 +5769,7 @@
         <v>88</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="L34" t="s" s="2">
         <v>264</v>
@@ -5741,9 +5777,7 @@
       <c r="M34" t="s" s="2">
         <v>265</v>
       </c>
-      <c r="N34" t="s" s="2">
-        <v>266</v>
-      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -5768,37 +5802,35 @@
         <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC34" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="AC34" s="2"/>
       <c r="AD34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI34" t="s" s="2">
         <v>79</v>
@@ -5807,16 +5839,16 @@
         <v>99</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" hidden="true">
@@ -5838,26 +5870,24 @@
         <v>87</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>271</v>
+        <v>125</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -5906,7 +5936,7 @@
         <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>77</v>
@@ -5918,13 +5948,13 @@
         <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="AM35" t="s" s="2">
         <v>79</v>
@@ -5935,21 +5965,21 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -5958,19 +5988,19 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -6008,37 +6038,37 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>79</v>
@@ -6049,14 +6079,12 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="C37" t="s" s="2">
-        <v>282</v>
-      </c>
+        <v>272</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6068,7 +6096,7 @@
         <v>87</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>79</v>
@@ -6077,15 +6105,17 @@
         <v>88</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>245</v>
+        <v>124</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>246</v>
+        <v>273</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="N37" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6134,39 +6164,39 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>244</v>
+        <v>276</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>252</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>253</v>
+        <v>278</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6186,18 +6216,20 @@
         <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>170</v>
+        <v>101</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>171</v>
+        <v>279</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N38" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
@@ -6222,13 +6254,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6246,7 +6278,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>173</v>
+        <v>284</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>77</v>
@@ -6258,13 +6290,13 @@
         <v>79</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>79</v>
@@ -6278,39 +6310,39 @@
         <v>285</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>254</v>
+        <v>285</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>133</v>
+        <v>171</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>134</v>
+        <v>286</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>175</v>
+        <v>287</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>136</v>
+        <v>288</v>
       </c>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
@@ -6348,37 +6380,37 @@
         <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>256</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>249</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>176</v>
+        <v>289</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>79</v>
@@ -6389,10 +6421,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>257</v>
+        <v>291</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6415,16 +6447,16 @@
         <v>88</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>258</v>
+        <v>292</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>259</v>
+        <v>293</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>260</v>
+        <v>294</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -6474,7 +6506,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>261</v>
+        <v>295</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6483,7 +6515,7 @@
         <v>87</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>262</v>
+        <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
         <v>99</v>
@@ -6492,7 +6524,7 @@
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6503,12 +6535,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="C41" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="D41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6520,7 +6554,7 @@
         <v>87</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>79</v>
@@ -6529,17 +6563,15 @@
         <v>88</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>101</v>
+        <v>263</v>
       </c>
       <c r="L41" t="s" s="2">
         <v>264</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>265</v>
-      </c>
-      <c r="N41" t="s" s="2">
-        <v>266</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6564,13 +6596,13 @@
         <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
         <v>79</v>
@@ -6588,13 +6620,13 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>79</v>
@@ -6603,21 +6635,21 @@
         <v>99</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>270</v>
@@ -6628,7 +6660,7 @@
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G42" t="s" s="2">
         <v>87</v>
@@ -6643,17 +6675,15 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>289</v>
+        <v>124</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>290</v>
+        <v>125</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="N42" t="s" s="2">
-        <v>273</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
@@ -6702,7 +6732,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6711,41 +6741,41 @@
         <v>87</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>292</v>
+        <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>293</v>
+        <v>128</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>294</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6754,19 +6784,19 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>170</v>
+        <v>131</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>277</v>
+        <v>132</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>278</v>
+        <v>133</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>279</v>
+        <v>134</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6804,37 +6834,37 @@
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>280</v>
+        <v>138</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
@@ -6845,21 +6875,21 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>296</v>
+        <v>272</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>297</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -6868,18 +6898,20 @@
         <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>298</v>
+        <v>124</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>299</v>
+        <v>273</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N44" s="2"/>
+        <v>274</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
@@ -6928,25 +6960,25 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>296</v>
+        <v>276</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>302</v>
+        <v>147</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
@@ -6957,10 +6989,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6971,7 +7003,7 @@
         <v>77</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
         <v>79</v>
@@ -6983,15 +7015,17 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>164</v>
+        <v>101</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>304</v>
+        <v>279</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N45" s="2"/>
+        <v>280</v>
+      </c>
+      <c r="N45" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7016,13 +7050,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>79</v>
+        <v>283</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7040,13 +7074,13 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI45" t="s" s="2">
         <v>79</v>
@@ -7055,24 +7089,24 @@
         <v>99</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>306</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>307</v>
+        <v>147</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>309</v>
+        <v>285</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7080,30 +7114,32 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>170</v>
+        <v>304</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>171</v>
+        <v>286</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N46" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="N46" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7152,7 +7188,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>173</v>
+        <v>289</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7164,13 +7200,13 @@
         <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>168</v>
+        <v>290</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
@@ -7181,21 +7217,21 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
@@ -7204,19 +7240,19 @@
         <v>79</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>134</v>
+        <v>292</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>175</v>
+        <v>293</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>136</v>
+        <v>294</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7266,25 +7302,25 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>176</v>
+        <v>295</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
@@ -7295,14 +7331,14 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>178</v>
+        <v>308</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
@@ -7315,26 +7351,22 @@
         <v>79</v>
       </c>
       <c r="I48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>133</v>
+        <v>309</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>179</v>
+        <v>310</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="N48" s="2"/>
+      <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
       </c>
@@ -7382,7 +7414,7 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>181</v>
+        <v>307</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
@@ -7394,13 +7426,13 @@
         <v>79</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>79</v>
+        <v>312</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>130</v>
+        <v>313</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7411,10 +7443,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7437,17 +7469,15 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>316</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -7472,31 +7502,31 @@
         <v>79</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF49" t="s" s="2">
-        <v>312</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7551,13 +7581,13 @@
         <v>79</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>184</v>
+        <v>124</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>321</v>
+        <v>125</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>322</v>
+        <v>126</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" s="2"/>
@@ -7608,7 +7638,7 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>320</v>
+        <v>127</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>77</v>
@@ -7620,38 +7650,38 @@
         <v>79</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>323</v>
+        <v>128</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>79</v>
@@ -7660,18 +7690,20 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>326</v>
+        <v>131</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>327</v>
+        <v>132</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="N51" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -7720,43 +7752,43 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>325</v>
+        <v>138</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>330</v>
+        <v>128</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>332</v>
+        <v>79</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
@@ -7769,22 +7801,26 @@
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>334</v>
+        <v>131</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>335</v>
+        <v>197</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="N52" s="2"/>
-      <c r="O52" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O52" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7832,7 +7868,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>333</v>
+        <v>199</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
@@ -7844,27 +7880,27 @@
         <v>79</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>337</v>
+        <v>147</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>338</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7875,7 +7911,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7884,19 +7920,19 @@
         <v>79</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>341</v>
+        <v>325</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>342</v>
+        <v>326</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7922,13 +7958,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -7946,13 +7982,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -7961,24 +7997,24 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>343</v>
+        <v>328</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>346</v>
+        <v>330</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8001,17 +8037,15 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>348</v>
+        <v>202</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>349</v>
+        <v>332</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="N54" s="2"/>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8060,7 +8094,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8075,35 +8109,35 @@
         <v>99</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>352</v>
+        <v>334</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>353</v>
+        <v>335</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
@@ -8115,17 +8149,15 @@
         <v>88</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>211</v>
+        <v>337</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N55" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="N55" s="2"/>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8150,13 +8182,13 @@
         <v>79</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y55" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="Z55" t="s" s="2">
-        <v>360</v>
+        <v>79</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>79</v>
@@ -8174,13 +8206,13 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>79</v>
@@ -8189,28 +8221,28 @@
         <v>99</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>361</v>
+        <v>340</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>362</v>
+        <v>341</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>363</v>
+        <v>342</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>364</v>
+        <v>343</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8229,17 +8261,15 @@
         <v>88</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>366</v>
+        <v>345</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>367</v>
+        <v>346</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>357</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8288,7 +8318,7 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>365</v>
+        <v>344</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8303,24 +8333,24 @@
         <v>99</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8331,7 +8361,7 @@
         <v>77</v>
       </c>
       <c r="G57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H57" t="s" s="2">
         <v>79</v>
@@ -8340,18 +8370,20 @@
         <v>79</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>164</v>
+        <v>202</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>369</v>
+        <v>351</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>370</v>
-      </c>
-      <c r="N57" s="2"/>
+        <v>352</v>
+      </c>
+      <c r="N57" t="s" s="2">
+        <v>353</v>
+      </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
         <v>79</v>
@@ -8400,13 +8432,13 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH57" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI57" t="s" s="2">
         <v>79</v>
@@ -8415,24 +8447,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>371</v>
+        <v>355</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>79</v>
+        <v>356</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8455,15 +8487,17 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>170</v>
+        <v>359</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>171</v>
+        <v>360</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N58" s="2"/>
+        <v>361</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>362</v>
+      </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
         <v>79</v>
@@ -8512,7 +8546,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>173</v>
+        <v>358</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8524,31 +8558,31 @@
         <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>168</v>
+        <v>363</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>79</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>373</v>
+        <v>365</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>132</v>
+        <v>366</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8564,19 +8598,19 @@
         <v>79</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>134</v>
+        <v>367</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>175</v>
+        <v>368</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>136</v>
+        <v>369</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8602,13 +8636,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>79</v>
+        <v>371</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8626,7 +8660,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>176</v>
+        <v>365</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
@@ -8638,31 +8672,31 @@
         <v>79</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>168</v>
+        <v>373</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>178</v>
+        <v>366</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
@@ -8675,26 +8709,24 @@
         <v>79</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>133</v>
+        <v>377</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>179</v>
+        <v>378</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>180</v>
+        <v>368</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O60" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
         <v>79</v>
       </c>
@@ -8742,7 +8774,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>181</v>
+        <v>376</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
@@ -8754,38 +8786,38 @@
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>79</v>
+        <v>372</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>130</v>
+        <v>373</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
-        <v>376</v>
+        <v>79</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8797,17 +8829,15 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>377</v>
+        <v>189</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>379</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>358</v>
-      </c>
+        <v>381</v>
+      </c>
+      <c r="N61" s="2"/>
       <c r="O61" s="2"/>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -8856,13 +8886,13 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -8871,16 +8901,16 @@
         <v>99</v>
       </c>
       <c r="AK61" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>363</v>
+        <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
     </row>
     <row r="62" hidden="true">
@@ -8911,13 +8941,13 @@
         <v>79</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>211</v>
+        <v>124</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>384</v>
+        <v>125</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>385</v>
+        <v>126</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8944,13 +8974,13 @@
         <v>79</v>
       </c>
       <c r="X62" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y62" t="s" s="2">
-        <v>386</v>
+        <v>79</v>
       </c>
       <c r="Z62" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="AA62" t="s" s="2">
         <v>79</v>
@@ -8968,7 +8998,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>383</v>
+        <v>127</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -8980,13 +9010,13 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
@@ -8997,21 +9027,21 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9023,15 +9053,17 @@
         <v>79</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>389</v>
+        <v>131</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>390</v>
+        <v>132</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="N63" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9080,25 +9112,25 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>388</v>
+        <v>138</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>392</v>
+        <v>128</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9109,44 +9141,46 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>394</v>
+        <v>131</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>395</v>
+        <v>197</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>396</v>
+        <v>198</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O64" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9194,7 +9228,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>393</v>
+        <v>199</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9206,13 +9240,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>398</v>
+        <v>147</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9223,18 +9257,18 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>79</v>
+        <v>387</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>87</v>
@@ -9246,19 +9280,19 @@
         <v>79</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>164</v>
+        <v>388</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>400</v>
+        <v>389</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>401</v>
+        <v>390</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>402</v>
+        <v>369</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
@@ -9308,10 +9342,10 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>87</v>
@@ -9323,24 +9357,24 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>403</v>
+        <v>392</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>79</v>
+        <v>374</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>79</v>
+        <v>393</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9363,13 +9397,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>171</v>
+        <v>395</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>172</v>
+        <v>396</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9396,13 +9430,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9420,7 +9454,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>173</v>
+        <v>394</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9432,13 +9466,13 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="AM66" t="s" s="2">
         <v>79</v>
@@ -9449,21 +9483,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9475,17 +9509,15 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>133</v>
+        <v>400</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>134</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N67" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>402</v>
+      </c>
+      <c r="N67" s="2"/>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -9534,25 +9566,25 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>176</v>
+        <v>399</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>168</v>
+        <v>403</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9563,46 +9595,44 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>133</v>
+        <v>405</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>179</v>
+        <v>406</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>180</v>
+        <v>407</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O68" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9650,7 +9680,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>181</v>
+        <v>404</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9662,13 +9692,13 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>130</v>
+        <v>409</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9679,10 +9709,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9705,15 +9735,17 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>145</v>
+        <v>189</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>409</v>
-      </c>
-      <c r="N69" s="2"/>
+        <v>412</v>
+      </c>
+      <c r="N69" t="s" s="2">
+        <v>413</v>
+      </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
         <v>79</v>
@@ -9762,7 +9794,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
@@ -9780,21 +9812,21 @@
         <v>79</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>149</v>
+        <v>414</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9817,13 +9849,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>412</v>
+        <v>124</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>413</v>
+        <v>125</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>414</v>
+        <v>126</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9874,7 +9906,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>411</v>
+        <v>127</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9886,13 +9918,13 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>415</v>
+        <v>128</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
@@ -9910,14 +9942,14 @@
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -9929,15 +9961,17 @@
         <v>79</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>417</v>
+        <v>132</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="N71" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -9962,13 +9996,13 @@
         <v>79</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>419</v>
+        <v>79</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>420</v>
+        <v>79</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>79</v>
@@ -9986,71 +10020,75 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>416</v>
+        <v>138</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>421</v>
+        <v>128</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>424</v>
+        <v>197</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N72" s="2"/>
-      <c r="O72" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O72" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10074,13 +10112,13 @@
         <v>79</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>79</v>
@@ -10098,39 +10136,39 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>423</v>
+        <v>199</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>428</v>
+        <v>79</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10141,7 +10179,7 @@
         <v>77</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>79</v>
@@ -10153,20 +10191,16 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>211</v>
+        <v>171</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>431</v>
-      </c>
-      <c r="N73" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="O73" t="s" s="2">
-        <v>433</v>
-      </c>
+        <v>420</v>
+      </c>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
       </c>
@@ -10190,13 +10224,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>434</v>
+        <v>79</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>435</v>
+        <v>79</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -10214,13 +10248,13 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>79</v>
@@ -10232,21 +10266,21 @@
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>436</v>
+        <v>175</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10257,7 +10291,7 @@
         <v>77</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>79</v>
@@ -10269,13 +10303,13 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>211</v>
+        <v>423</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>439</v>
+        <v>424</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>440</v>
+        <v>425</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10302,13 +10336,13 @@
         <v>79</v>
       </c>
       <c r="X74" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y74" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>442</v>
+        <v>79</v>
       </c>
       <c r="AA74" t="s" s="2">
         <v>79</v>
@@ -10326,13 +10360,13 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>79</v>
@@ -10344,21 +10378,21 @@
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>444</v>
+        <v>79</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10369,7 +10403,7 @@
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10381,13 +10415,13 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>446</v>
+        <v>428</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>447</v>
+        <v>429</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10417,10 +10451,10 @@
         <v>111</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>448</v>
+        <v>430</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>449</v>
+        <v>431</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -10438,13 +10472,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>445</v>
+        <v>427</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -10456,21 +10490,21 @@
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>450</v>
+        <v>432</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>451</v>
+        <v>433</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10493,13 +10527,13 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>412</v>
+        <v>229</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>453</v>
+        <v>435</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>454</v>
+        <v>436</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" s="2"/>
@@ -10526,13 +10560,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>79</v>
+        <v>437</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>79</v>
+        <v>438</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -10550,7 +10584,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>452</v>
+        <v>434</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
@@ -10568,21 +10602,21 @@
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>456</v>
+        <v>439</v>
       </c>
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10593,7 +10627,7 @@
         <v>77</v>
       </c>
       <c r="G77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H77" t="s" s="2">
         <v>79</v>
@@ -10605,16 +10639,20 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>211</v>
+        <v>229</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>458</v>
+        <v>441</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>459</v>
-      </c>
-      <c r="N77" s="2"/>
-      <c r="O77" s="2"/>
+        <v>442</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="O77" t="s" s="2">
+        <v>444</v>
+      </c>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10638,13 +10676,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>460</v>
+        <v>445</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>461</v>
+        <v>446</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -10662,13 +10700,13 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH77" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI77" t="s" s="2">
         <v>79</v>
@@ -10680,21 +10718,21 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>462</v>
+        <v>447</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>463</v>
+        <v>448</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10717,17 +10755,15 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>164</v>
+        <v>229</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>465</v>
+        <v>450</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N78" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>451</v>
+      </c>
+      <c r="N78" s="2"/>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
         <v>79</v>
@@ -10752,13 +10788,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>79</v>
+        <v>453</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -10776,7 +10812,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>464</v>
+        <v>449</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
@@ -10794,21 +10830,21 @@
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>468</v>
+        <v>454</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>79</v>
+        <v>455</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>469</v>
+        <v>456</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10819,7 +10855,7 @@
         <v>77</v>
       </c>
       <c r="G79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H79" t="s" s="2">
         <v>79</v>
@@ -10831,13 +10867,13 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>170</v>
+        <v>229</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>171</v>
+        <v>457</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>172</v>
+        <v>458</v>
       </c>
       <c r="N79" s="2"/>
       <c r="O79" s="2"/>
@@ -10864,13 +10900,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>79</v>
+        <v>460</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -10888,50 +10924,50 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>173</v>
+        <v>456</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH79" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>168</v>
+        <v>461</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>79</v>
+        <v>462</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>132</v>
+        <v>79</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
@@ -10943,17 +10979,15 @@
         <v>79</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>133</v>
+        <v>423</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>134</v>
+        <v>464</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>175</v>
-      </c>
-      <c r="N80" t="s" s="2">
-        <v>136</v>
-      </c>
+        <v>465</v>
+      </c>
+      <c r="N80" s="2"/>
       <c r="O80" s="2"/>
       <c r="P80" t="s" s="2">
         <v>79</v>
@@ -11002,75 +11036,71 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>176</v>
+        <v>463</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>168</v>
+        <v>466</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>79</v>
+        <v>467</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>133</v>
+        <v>229</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>179</v>
+        <v>469</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N81" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="O81" t="s" s="2">
-        <v>142</v>
-      </c>
+        <v>470</v>
+      </c>
+      <c r="N81" s="2"/>
+      <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
       </c>
@@ -11094,13 +11124,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>79</v>
+        <v>233</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>79</v>
+        <v>471</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>79</v>
+        <v>472</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11118,39 +11148,39 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>181</v>
+        <v>468</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH81" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>130</v>
+        <v>473</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>79</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11158,10 +11188,10 @@
       </c>
       <c r="E82" s="2"/>
       <c r="F82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11173,15 +11203,17 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>473</v>
+        <v>189</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>475</v>
-      </c>
-      <c r="N82" s="2"/>
+        <v>477</v>
+      </c>
+      <c r="N82" t="s" s="2">
+        <v>478</v>
+      </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11230,13 +11262,13 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
@@ -11245,24 +11277,24 @@
         <v>99</v>
       </c>
       <c r="AK82" t="s" s="2">
-        <v>476</v>
+        <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>330</v>
+        <v>479</v>
       </c>
       <c r="AM82" t="s" s="2">
-        <v>477</v>
+        <v>79</v>
       </c>
       <c r="AN82" t="s" s="2">
-        <v>478</v>
+        <v>79</v>
       </c>
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11285,17 +11317,15 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>480</v>
+        <v>125</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>481</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>482</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N83" s="2"/>
       <c r="O83" s="2"/>
       <c r="P83" t="s" s="2">
         <v>79</v>
@@ -11320,13 +11350,13 @@
         <v>79</v>
       </c>
       <c r="X83" t="s" s="2">
-        <v>156</v>
+        <v>79</v>
       </c>
       <c r="Y83" t="s" s="2">
-        <v>483</v>
+        <v>79</v>
       </c>
       <c r="Z83" t="s" s="2">
-        <v>484</v>
+        <v>79</v>
       </c>
       <c r="AA83" t="s" s="2">
         <v>79</v>
@@ -11344,7 +11374,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>479</v>
+        <v>127</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11356,13 +11386,13 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>485</v>
+        <v>128</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11373,21 +11403,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11399,16 +11429,16 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>211</v>
+        <v>131</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>487</v>
+        <v>132</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>488</v>
+        <v>133</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>489</v>
+        <v>134</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11434,13 +11464,13 @@
         <v>79</v>
       </c>
       <c r="X84" t="s" s="2">
-        <v>215</v>
+        <v>79</v>
       </c>
       <c r="Y84" t="s" s="2">
-        <v>490</v>
+        <v>79</v>
       </c>
       <c r="Z84" t="s" s="2">
-        <v>491</v>
+        <v>79</v>
       </c>
       <c r="AA84" t="s" s="2">
         <v>79</v>
@@ -11458,25 +11488,25 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>486</v>
+        <v>138</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH84" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>79</v>
+        <v>128</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11487,42 +11517,46 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>184</v>
+        <v>131</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>493</v>
+        <v>197</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>494</v>
-      </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O85" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11570,25 +11604,25 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>492</v>
+        <v>199</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>323</v>
+        <v>147</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -11599,10 +11633,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11610,13 +11644,13 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H86" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I86" t="s" s="2">
         <v>79</v>
@@ -11625,13 +11659,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>496</v>
+        <v>484</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>497</v>
+        <v>485</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>498</v>
+        <v>486</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11682,10 +11716,10 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>87</v>
@@ -11697,24 +11731,24 @@
         <v>99</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>329</v>
+        <v>487</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>499</v>
+        <v>341</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>79</v>
+        <v>488</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>500</v>
+        <v>489</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11737,16 +11771,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>502</v>
+        <v>107</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>503</v>
+        <v>491</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>504</v>
+        <v>492</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>505</v>
+        <v>493</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11772,13 +11806,13 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>79</v>
+        <v>494</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>79</v>
+        <v>495</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -11796,7 +11830,7 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
@@ -11811,20 +11845,472 @@
         <v>99</v>
       </c>
       <c r="AK87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL87" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="AM87" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN87" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="88" hidden="true">
+      <c r="A88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="B88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E88" s="2"/>
+      <c r="F88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K88" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L88" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="N88" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="O88" s="2"/>
+      <c r="P88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q88" s="2"/>
+      <c r="R88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X88" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y88" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="Z88" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="AA88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF88" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG88" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH88" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ88" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM88" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN88" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="89" hidden="true">
+      <c r="A89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="B89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K89" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L89" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="M89" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="N89" s="2"/>
+      <c r="O89" s="2"/>
+      <c r="P89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q89" s="2"/>
+      <c r="R89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF89" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="AG89" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH89" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ89" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL89" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AM89" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN89" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="90" hidden="true">
+      <c r="A90" t="s" s="2">
         <v>506</v>
       </c>
-      <c r="AL87" t="s" s="2">
+      <c r="B90" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E90" s="2"/>
+      <c r="F90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H90" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K90" t="s" s="2">
         <v>507</v>
       </c>
-      <c r="AM87" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN87" t="s" s="2">
+      <c r="L90" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="N90" s="2"/>
+      <c r="O90" s="2"/>
+      <c r="P90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q90" s="2"/>
+      <c r="R90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF90" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AG90" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH90" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ90" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK90" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="AL90" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AM90" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN90" t="s" s="2">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="91" hidden="true">
+      <c r="A91" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="B91" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E91" s="2"/>
+      <c r="F91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K91" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="L91" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q91" s="2"/>
+      <c r="R91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF91" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG91" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH91" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ91" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK91" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN87">
+  <autoFilter ref="A1:AN91">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -11834,7 +12320,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI86">
+  <conditionalFormatting sqref="A2:AI90">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/ig/core/StructureDefinition-medcom-core-encounter.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-encounter.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.0.1</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T12:42:36+00:00</t>
+    <t>2025-10-29T07:28:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -365,7 +365,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -750,7 +750,7 @@
     <t>The type of encounter.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-type|4.0.1</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -774,7 +774,7 @@
     <t>Broad categorization of the service that is to be provided.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-type</t>
+    <t>http://hl7.org/fhir/ValueSet/service-type|4.0.1</t>
   </si>
   <si>
     <t>PV1-10</t>
@@ -836,7 +836,7 @@
     <t>Encounter.episodeOfCare</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(EpisodeOfCare)
+    <t xml:space="preserve">Reference(EpisodeOfCare|4.0.1)
 </t>
   </si>
   <si>
@@ -900,7 +900,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -983,7 +983,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1038,7 +1038,7 @@
     <t>The participant type indicates how an individual participates in an encounter. It includes non-practitioner participants, and for practitioners this is to describe the action type in the context of this encounter (e.g. Admitting Dr, Attending Dr, Translator, Consulting Dr). This is different to the practitioner roles which are functional roles, derived from terms of employment, education, licensing, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-participant-type|4.0.1</t>
   </si>
   <si>
     <t>Event.performer.function</t>
@@ -1068,7 +1068,7 @@
     <t>Encounter.participant.individual</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1093,7 +1093,7 @@
     <t>Encounter.appointment</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Appointment)
+    <t xml:space="preserve">Reference(Appointment|4.0.1)
 </t>
   </si>
   <si>
@@ -1174,7 +1174,7 @@
     <t>Reason why the encounter takes place.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-reason|4.0.1</t>
   </si>
   <si>
     <t>Event.reasonCode</t>
@@ -1192,7 +1192,7 @@
     <t>Encounter.reasonReference</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure|Observation|ImmunizationRecommendation)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1|Observation|4.0.1|ImmunizationRecommendation|4.0.1)
 </t>
   </si>
   <si>
@@ -1227,7 +1227,7 @@
 discharge diagnosisindication</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Condition|Procedure)
+    <t xml:space="preserve">Reference(Condition|4.0.1|Procedure|4.0.1)
 </t>
   </si>
   <si>
@@ -1258,7 +1258,7 @@
     <t>The type of diagnosis this condition represents.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnosis-role</t>
+    <t>http://hl7.org/fhir/ValueSet/diagnosis-role|4.0.1</t>
   </si>
   <si>
     <t>Encounter.diagnosis.rank</t>
@@ -1280,7 +1280,7 @@
     <t>Encounter.account</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Account)
+    <t xml:space="preserve">Reference(Account|4.0.1)
 </t>
   </si>
   <si>
@@ -1337,7 +1337,7 @@
     <t>Encounter.hospitalization.origin</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location|Organization)
+    <t xml:space="preserve">Reference(Location|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1362,7 +1362,7 @@
     <t>From where the patient was admitted.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-admit-source|4.0.1</t>
   </si>
   <si>
     <t>.admissionReferralSourceCode</t>
@@ -1407,7 +1407,7 @@
     <t>Medical, cultural or ethical food preferences to help with catering requirements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-diet</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-diet|4.0.1</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=COMP].target[classCode=SBADM, moodCode=EVN, code="diet"]</t>
@@ -1428,7 +1428,7 @@
     <t>Special courtesies.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-courtesy|4.0.1</t>
   </si>
   <si>
     <t>.specialCourtesiesCode</t>
@@ -1449,7 +1449,7 @@
     <t>Special arrangements.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-special-arrangements|4.0.1</t>
   </si>
   <si>
     <t>.specialArrangementCode</t>
@@ -1485,7 +1485,7 @@
     <t>Discharge Disposition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition</t>
+    <t>http://hl7.org/fhir/ValueSet/encounter-discharge-disposition|4.0.1</t>
   </si>
   <si>
     <t>.dischargeDispositionCode</t>
@@ -1521,7 +1521,7 @@
     <t>Encounter.location.location</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1577,7 +1577,7 @@
     <t>Physical form of the location.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/location-physical-type</t>
+    <t>http://hl7.org/fhir/ValueSet/location-physical-type|4.0.1</t>
   </si>
   <si>
     <t>Encounter.location.period</t>
@@ -1611,7 +1611,7 @@
     <t>Encounter.partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>

--- a/ig/core/StructureDefinition-medcom-core-encounter.xlsx
+++ b/ig/core/StructureDefinition-medcom-core-encounter.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$91</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$107</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3281" uniqueCount="519">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3859" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T07:28:01+00:00</t>
+    <t>2026-01-13T14:04:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -716,7 +716,7 @@
     <t>Classification of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActEncounterCode</t>
   </si>
   <si>
     <t>Encounter.classHistory.period</t>
@@ -789,7 +789,7 @@
     <t>Indicates the urgency of the encounter.</t>
   </si>
   <si>
-    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority|3.0.0</t>
+    <t>http://terminology.hl7.org/ValueSet/v3-ActPriority</t>
   </si>
   <si>
     <t>.priorityCode</t>
@@ -927,6 +927,160 @@
     <t>.identifier</t>
   </si>
   <si>
+    <t>Encounter.episodeOfCare.identifier.id</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare.identifier.extension</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare.identifier.type</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare.identifier.value</t>
+  </si>
+  <si>
+    <t>The value that is unique</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare.identifier.period</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization|4.0.1)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
     <t>Encounter.episodeOfCare.display</t>
   </si>
   <si>
@@ -971,6 +1125,37 @@
   </si>
   <si>
     <t>Shall contain the id of the episode of care reported to the Danish National Patient Registry if known</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare:lpr3identifier.identifier.id</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare:lpr3identifier.identifier.extension</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare:lpr3identifier.identifier.use</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare:lpr3identifier.identifier.type</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare:lpr3identifier.identifier.system</t>
+  </si>
+  <si>
+    <t>https://www.esundhed.dk/Registre/Landspatientregisteret</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare:lpr3identifier.identifier.value</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+uuidv5:LPR3 episodeOfCare identifiers must conform to a UUIDv5 {matches('urn:uuid:[a-fA-F0-9]{8}-[a-fA-F0-9]{4}-[5][a-fA-F0-9]{3}-[89aAbB][a-fA-F0-9]{3}-[a-fA-F0-9]{12}')}</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare:lpr3identifier.identifier.period</t>
+  </si>
+  <si>
+    <t>Encounter.episodeOfCare:lpr3identifier.identifier.assigner</t>
   </si>
   <si>
     <t>Encounter.episodeOfCare:lpr3identifier.display</t>
@@ -1947,7 +2132,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN91"/>
+  <dimension ref="A1:AN107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1956,7 +2141,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.89453125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="47.44921875" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="39.16015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="11.03125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
@@ -1975,12 +2160,12 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="8.53515625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="64.00390625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="61.5625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.953125" customWidth="true" bestFit="true"/>
@@ -1992,7 +2177,7 @@
     <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="79.453125" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="87.9765625" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="31.65234375" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="163.86328125" customWidth="true" bestFit="true"/>
   </cols>
@@ -2244,7 +2429,7 @@
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G3" t="s" s="2">
         <v>87</v>
@@ -2698,7 +2883,7 @@
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s" s="2">
         <v>87</v>
@@ -6444,20 +6629,18 @@
         <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K40" t="s" s="2">
         <v>124</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>292</v>
+        <v>125</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="N40" t="s" s="2">
-        <v>294</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="N40" s="2"/>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
@@ -6506,7 +6689,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>295</v>
+        <v>127</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>77</v>
@@ -6518,13 +6701,13 @@
         <v>79</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>79</v>
@@ -6535,43 +6718,43 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>262</v>
-      </c>
-      <c r="C41" t="s" s="2">
-        <v>297</v>
-      </c>
+        <v>292</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>263</v>
+        <v>131</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>264</v>
+        <v>132</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N41" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N41" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
@@ -6608,19 +6791,19 @@
         <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AD41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>262</v>
+        <v>138</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>77</v>
@@ -6632,27 +6815,27 @@
         <v>79</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
         <v>128</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>268</v>
+        <v>79</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>269</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>270</v>
+        <v>293</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6669,22 +6852,26 @@
         <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>125</v>
+        <v>294</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
+        <v>295</v>
+      </c>
+      <c r="N42" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -6708,13 +6895,13 @@
         <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AA42" t="s" s="2">
         <v>79</v>
@@ -6732,7 +6919,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>127</v>
+        <v>300</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>77</v>
@@ -6744,38 +6931,38 @@
         <v>79</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="AM42" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>271</v>
+        <v>302</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>79</v>
@@ -6784,21 +6971,23 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>131</v>
+        <v>229</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>132</v>
+        <v>303</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>133</v>
+        <v>304</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -6822,63 +7011,63 @@
         <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>135</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>137</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>138</v>
+        <v>309</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>128</v>
+        <v>301</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>79</v>
+        <v>310</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>301</v>
+        <v>311</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>272</v>
+        <v>311</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6886,13 +7075,13 @@
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>79</v>
@@ -6901,18 +7090,20 @@
         <v>88</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>273</v>
+        <v>312</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>274</v>
+        <v>313</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>275</v>
-      </c>
-      <c r="O44" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O44" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -6924,7 +7115,7 @@
         <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="U44" t="s" s="2">
         <v>79</v>
@@ -6960,7 +7151,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>276</v>
+        <v>317</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>77</v>
@@ -6969,7 +7160,7 @@
         <v>87</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>277</v>
+        <v>79</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>99</v>
@@ -6978,21 +7169,21 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>147</v>
+        <v>318</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>79</v>
+        <v>319</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>302</v>
+        <v>320</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>278</v>
+        <v>320</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7000,13 +7191,13 @@
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G45" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I45" t="s" s="2">
         <v>79</v>
@@ -7015,16 +7206,16 @@
         <v>88</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>101</v>
+        <v>124</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>279</v>
+        <v>321</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>280</v>
+        <v>322</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>281</v>
+        <v>323</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7038,7 +7229,7 @@
         <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="U45" t="s" s="2">
         <v>79</v>
@@ -7050,13 +7241,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>222</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>282</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>283</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7074,7 +7265,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>284</v>
+        <v>325</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>77</v>
@@ -7092,21 +7283,21 @@
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>147</v>
+        <v>326</v>
       </c>
       <c r="AM45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>79</v>
+        <v>327</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>303</v>
+        <v>328</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>285</v>
+        <v>328</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7114,13 +7305,13 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G46" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
         <v>79</v>
@@ -7129,17 +7320,15 @@
         <v>88</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>304</v>
+        <v>202</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>286</v>
+        <v>329</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>305</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>288</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="N46" s="2"/>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
         <v>79</v>
@@ -7188,7 +7377,7 @@
         <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>289</v>
+        <v>331</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>77</v>
@@ -7206,21 +7395,21 @@
         <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>306</v>
+        <v>334</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7243,16 +7432,16 @@
         <v>88</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>292</v>
+        <v>336</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>293</v>
+        <v>337</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7302,7 +7491,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>295</v>
+        <v>339</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>77</v>
@@ -7320,32 +7509,32 @@
         <v>79</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>147</v>
+        <v>340</v>
       </c>
       <c r="AM47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>307</v>
+        <v>342</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7354,18 +7543,20 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>309</v>
+        <v>124</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>311</v>
-      </c>
-      <c r="N48" s="2"/>
+        <v>344</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>345</v>
+      </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
         <v>79</v>
@@ -7414,13 +7605,13 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>307</v>
+        <v>346</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>79</v>
@@ -7429,10 +7620,10 @@
         <v>99</v>
       </c>
       <c r="AK48" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>313</v>
+        <v>147</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>79</v>
@@ -7443,12 +7634,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>262</v>
+      </c>
+      <c r="C49" t="s" s="2">
+        <v>348</v>
+      </c>
       <c r="D49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7457,10 +7650,10 @@
         <v>77</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H49" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I49" t="s" s="2">
         <v>79</v>
@@ -7469,13 +7662,13 @@
         <v>88</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>189</v>
+        <v>263</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>315</v>
+        <v>264</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>316</v>
+        <v>349</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" s="2"/>
@@ -7526,7 +7719,7 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>314</v>
+        <v>262</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>77</v>
@@ -7541,24 +7734,24 @@
         <v>99</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>317</v>
+        <v>267</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>318</v>
+        <v>128</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>319</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>320</v>
+        <v>270</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7667,10 +7860,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>321</v>
+        <v>351</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>321</v>
+        <v>271</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7740,16 +7933,16 @@
         <v>79</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC51" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AD51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>138</v>
@@ -7781,46 +7974,44 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>322</v>
+        <v>352</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>322</v>
+        <v>272</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I52" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J52" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>197</v>
+        <v>273</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>198</v>
+        <v>274</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O52" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>275</v>
+      </c>
+      <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
       </c>
@@ -7868,19 +8059,19 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>199</v>
+        <v>276</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI52" t="s" s="2">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
@@ -7897,10 +8088,10 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>353</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7911,7 +8102,7 @@
         <v>77</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H53" t="s" s="2">
         <v>79</v>
@@ -7923,16 +8114,16 @@
         <v>88</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7961,10 +8152,10 @@
         <v>222</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>325</v>
+        <v>282</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -7982,13 +8173,13 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>79</v>
@@ -7997,24 +8188,24 @@
         <v>99</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>328</v>
+        <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>329</v>
+        <v>147</v>
       </c>
       <c r="AM53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>330</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>331</v>
+        <v>354</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>331</v>
+        <v>285</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8022,30 +8213,32 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G54" t="s" s="2">
         <v>87</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>202</v>
+        <v>355</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>332</v>
+        <v>286</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="N54" s="2"/>
+        <v>356</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>288</v>
+      </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
@@ -8094,7 +8287,7 @@
         <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>331</v>
+        <v>289</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>77</v>
@@ -8112,21 +8305,21 @@
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>334</v>
+        <v>290</v>
       </c>
       <c r="AM54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8146,16 +8339,16 @@
         <v>79</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>337</v>
+        <v>124</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>338</v>
+        <v>125</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>339</v>
+        <v>126</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8206,7 +8399,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>336</v>
+        <v>127</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>77</v>
@@ -8218,31 +8411,31 @@
         <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>342</v>
+        <v>79</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>343</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>344</v>
+        <v>358</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
@@ -8258,18 +8451,20 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>345</v>
+        <v>131</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>346</v>
+        <v>132</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>347</v>
-      </c>
-      <c r="N56" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -8306,19 +8501,19 @@
         <v>79</v>
       </c>
       <c r="AB56" t="s" s="2">
-        <v>79</v>
+        <v>135</v>
       </c>
       <c r="AC56" t="s" s="2">
-        <v>79</v>
+        <v>136</v>
       </c>
       <c r="AD56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>79</v>
+        <v>137</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>344</v>
+        <v>138</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>77</v>
@@ -8330,27 +8525,27 @@
         <v>79</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK56" t="s" s="2">
-        <v>312</v>
+        <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>348</v>
+        <v>128</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN56" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>350</v>
+        <v>359</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>350</v>
+        <v>293</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8367,24 +8562,26 @@
         <v>79</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>202</v>
+        <v>107</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>351</v>
+        <v>294</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>352</v>
+        <v>295</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>353</v>
-      </c>
-      <c r="O57" s="2"/>
+        <v>296</v>
+      </c>
+      <c r="O57" t="s" s="2">
+        <v>297</v>
+      </c>
       <c r="P57" t="s" s="2">
         <v>79</v>
       </c>
@@ -8408,13 +8605,13 @@
         <v>79</v>
       </c>
       <c r="X57" t="s" s="2">
-        <v>79</v>
+        <v>143</v>
       </c>
       <c r="Y57" t="s" s="2">
-        <v>79</v>
+        <v>298</v>
       </c>
       <c r="Z57" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AA57" t="s" s="2">
         <v>79</v>
@@ -8432,7 +8629,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>77</v>
@@ -8447,24 +8644,24 @@
         <v>99</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AN57" t="s" s="2">
-        <v>357</v>
+        <v>147</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>358</v>
+        <v>302</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8484,21 +8681,23 @@
         <v>79</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>359</v>
+        <v>229</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>360</v>
+        <v>303</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>361</v>
+        <v>304</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>362</v>
-      </c>
-      <c r="O58" s="2"/>
+        <v>305</v>
+      </c>
+      <c r="O58" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="P58" t="s" s="2">
         <v>79</v>
       </c>
@@ -8522,13 +8721,13 @@
         <v>79</v>
       </c>
       <c r="X58" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y58" t="s" s="2">
-        <v>79</v>
+        <v>307</v>
       </c>
       <c r="Z58" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="AA58" t="s" s="2">
         <v>79</v>
@@ -8546,7 +8745,7 @@
         <v>79</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>358</v>
+        <v>309</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>77</v>
@@ -8561,38 +8760,38 @@
         <v>99</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>363</v>
+        <v>301</v>
       </c>
       <c r="AM58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN58" t="s" s="2">
-        <v>364</v>
+        <v>310</v>
       </c>
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>365</v>
+        <v>311</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H59" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I59" t="s" s="2">
         <v>79</v>
@@ -8601,30 +8800,32 @@
         <v>88</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>229</v>
+        <v>101</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>368</v>
+        <v>313</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="O59" s="2"/>
+        <v>314</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>315</v>
+      </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>79</v>
+        <v>362</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>79</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>79</v>
+        <v>316</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>79</v>
@@ -8636,13 +8837,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -8660,13 +8861,13 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH59" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI59" t="s" s="2">
         <v>79</v>
@@ -8675,38 +8876,38 @@
         <v>99</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>373</v>
+        <v>318</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>375</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>376</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
-        <v>366</v>
+        <v>79</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H60" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I60" t="s" s="2">
         <v>79</v>
@@ -8715,16 +8916,16 @@
         <v>88</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>377</v>
+        <v>124</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>378</v>
+        <v>321</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>368</v>
+        <v>322</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -8738,7 +8939,7 @@
         <v>79</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>79</v>
@@ -8774,39 +8975,39 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>376</v>
+        <v>325</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH60" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI60" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>99</v>
+        <v>364</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>372</v>
+        <v>79</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>373</v>
+        <v>326</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AN60" t="s" s="2">
-        <v>375</v>
+        <v>327</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>379</v>
+        <v>328</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8817,7 +9018,7 @@
         <v>77</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H61" t="s" s="2">
         <v>79</v>
@@ -8829,13 +9030,13 @@
         <v>88</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>380</v>
+        <v>329</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8886,13 +9087,13 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>379</v>
+        <v>331</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH61" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI61" t="s" s="2">
         <v>79</v>
@@ -8904,21 +9105,21 @@
         <v>79</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>382</v>
+        <v>332</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>383</v>
+        <v>366</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>383</v>
+        <v>334</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8938,18 +9139,20 @@
         <v>79</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>125</v>
+        <v>336</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="N62" s="2"/>
+        <v>337</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>338</v>
+      </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -8998,7 +9201,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>127</v>
+        <v>339</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>77</v>
@@ -9010,38 +9213,38 @@
         <v>79</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>128</v>
+        <v>340</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>79</v>
+        <v>341</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>384</v>
+        <v>367</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>384</v>
+        <v>342</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H63" t="s" s="2">
         <v>79</v>
@@ -9050,19 +9253,19 @@
         <v>79</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>132</v>
+        <v>343</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>134</v>
+        <v>345</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9112,25 +9315,25 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>138</v>
+        <v>346</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH63" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>128</v>
+        <v>147</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>79</v>
@@ -9141,14 +9344,14 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>385</v>
+        <v>368</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>196</v>
+        <v>369</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -9161,26 +9364,22 @@
         <v>79</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>131</v>
+        <v>370</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>197</v>
+        <v>371</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N64" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O64" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>372</v>
+      </c>
+      <c r="N64" s="2"/>
+      <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
         <v>79</v>
       </c>
@@ -9228,7 +9427,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>199</v>
+        <v>368</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>77</v>
@@ -9240,13 +9439,13 @@
         <v>79</v>
       </c>
       <c r="AJ64" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>147</v>
+        <v>374</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>79</v>
@@ -9257,21 +9456,21 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>387</v>
+        <v>79</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>79</v>
@@ -9283,17 +9482,15 @@
         <v>88</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>388</v>
+        <v>189</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>389</v>
+        <v>376</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>369</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -9342,13 +9539,13 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>386</v>
+        <v>375</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH65" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI65" t="s" s="2">
         <v>79</v>
@@ -9357,24 +9554,24 @@
         <v>99</v>
       </c>
       <c r="AK65" t="s" s="2">
-        <v>391</v>
+        <v>378</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>392</v>
+        <v>379</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>374</v>
+        <v>79</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>393</v>
+        <v>380</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>394</v>
+        <v>381</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -9397,13 +9594,13 @@
         <v>79</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>395</v>
+        <v>125</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>396</v>
+        <v>126</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9430,13 +9627,13 @@
         <v>79</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>397</v>
+        <v>79</v>
       </c>
       <c r="Z66" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="AA66" t="s" s="2">
         <v>79</v>
@@ -9454,7 +9651,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>394</v>
+        <v>127</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>77</v>
@@ -9466,7 +9663,7 @@
         <v>79</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
@@ -9483,21 +9680,21 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>399</v>
+        <v>382</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s" s="2">
         <v>79</v>
@@ -9509,15 +9706,17 @@
         <v>79</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>400</v>
+        <v>131</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>401</v>
+        <v>132</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="N67" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
         <v>79</v>
@@ -9566,25 +9765,25 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>399</v>
+        <v>138</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>403</v>
+        <v>128</v>
       </c>
       <c r="AM67" t="s" s="2">
         <v>79</v>
@@ -9595,44 +9794,46 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>404</v>
+        <v>383</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>405</v>
+        <v>131</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>406</v>
+        <v>197</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>407</v>
+        <v>198</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="O68" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O68" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P68" t="s" s="2">
         <v>79</v>
       </c>
@@ -9680,7 +9881,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>404</v>
+        <v>199</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>77</v>
@@ -9692,13 +9893,13 @@
         <v>79</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>409</v>
+        <v>147</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>79</v>
@@ -9709,10 +9910,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9723,7 +9924,7 @@
         <v>77</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>79</v>
@@ -9732,19 +9933,19 @@
         <v>79</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>411</v>
+        <v>385</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>412</v>
+        <v>386</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>413</v>
+        <v>387</v>
       </c>
       <c r="O69" s="2"/>
       <c r="P69" t="s" s="2">
@@ -9770,13 +9971,13 @@
         <v>79</v>
       </c>
       <c r="X69" t="s" s="2">
-        <v>79</v>
+        <v>222</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>79</v>
+        <v>386</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>79</v>
@@ -9794,13 +9995,13 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>79</v>
@@ -9809,24 +10010,24 @@
         <v>99</v>
       </c>
       <c r="AK69" t="s" s="2">
-        <v>79</v>
+        <v>389</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>79</v>
+        <v>391</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9849,13 +10050,13 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>124</v>
+        <v>202</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>125</v>
+        <v>393</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>126</v>
+        <v>394</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9906,7 +10107,7 @@
         <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>127</v>
+        <v>392</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>77</v>
@@ -9918,38 +10119,38 @@
         <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>128</v>
+        <v>395</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>79</v>
@@ -9958,20 +10159,18 @@
         <v>79</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>131</v>
+        <v>398</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>132</v>
+        <v>399</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="N71" t="s" s="2">
-        <v>134</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="N71" s="2"/>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10020,43 +10219,43 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>138</v>
+        <v>397</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI71" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>79</v>
+        <v>401</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>128</v>
+        <v>402</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>79</v>
+        <v>403</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>79</v>
+        <v>404</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>417</v>
+        <v>405</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" t="s" s="2">
@@ -10069,26 +10268,22 @@
         <v>79</v>
       </c>
       <c r="I72" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J72" t="s" s="2">
         <v>88</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>131</v>
+        <v>406</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>197</v>
+        <v>407</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>198</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O72" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>408</v>
+      </c>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
       </c>
@@ -10136,7 +10331,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>199</v>
+        <v>405</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>77</v>
@@ -10148,27 +10343,27 @@
         <v>79</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK72" t="s" s="2">
-        <v>79</v>
+        <v>373</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>147</v>
+        <v>409</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>79</v>
+        <v>410</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10191,15 +10386,17 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N73" s="2"/>
+        <v>413</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>414</v>
+      </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
         <v>79</v>
@@ -10248,7 +10445,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>77</v>
@@ -10263,24 +10460,24 @@
         <v>99</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>175</v>
+        <v>416</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>79</v>
+        <v>417</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10303,15 +10500,17 @@
         <v>79</v>
       </c>
       <c r="K74" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N74" t="s" s="2">
         <v>423</v>
       </c>
-      <c r="L74" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -10360,7 +10559,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>77</v>
@@ -10375,35 +10574,35 @@
         <v>99</v>
       </c>
       <c r="AK74" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H75" t="s" s="2">
         <v>79</v>
@@ -10412,7 +10611,7 @@
         <v>79</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K75" t="s" s="2">
         <v>229</v>
@@ -10423,7 +10622,9 @@
       <c r="M75" t="s" s="2">
         <v>429</v>
       </c>
-      <c r="N75" s="2"/>
+      <c r="N75" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -10451,10 +10652,10 @@
         <v>111</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -10472,13 +10673,13 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH75" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI75" t="s" s="2">
         <v>79</v>
@@ -10487,35 +10688,35 @@
         <v>99</v>
       </c>
       <c r="AK75" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>433</v>
+        <v>436</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
-        <v>79</v>
+        <v>427</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>79</v>
@@ -10524,18 +10725,20 @@
         <v>79</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>229</v>
+        <v>438</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>436</v>
-      </c>
-      <c r="N76" s="2"/>
+        <v>429</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -10560,37 +10763,37 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="Y76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF76" t="s" s="2">
         <v>437</v>
       </c>
-      <c r="Z76" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AA76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE76" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF76" t="s" s="2">
-        <v>434</v>
-      </c>
       <c r="AG76" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH76" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI76" t="s" s="2">
         <v>79</v>
@@ -10599,16 +10802,16 @@
         <v>99</v>
       </c>
       <c r="AK76" t="s" s="2">
-        <v>79</v>
+        <v>433</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>128</v>
+        <v>434</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="77" hidden="true">
@@ -10636,10 +10839,10 @@
         <v>79</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="L77" t="s" s="2">
         <v>441</v>
@@ -10647,12 +10850,8 @@
       <c r="M77" t="s" s="2">
         <v>442</v>
       </c>
-      <c r="N77" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="O77" t="s" s="2">
-        <v>444</v>
-      </c>
+      <c r="N77" s="2"/>
+      <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
       </c>
@@ -10676,13 +10875,13 @@
         <v>79</v>
       </c>
       <c r="X77" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="Y77" t="s" s="2">
-        <v>445</v>
+        <v>79</v>
       </c>
       <c r="Z77" t="s" s="2">
-        <v>446</v>
+        <v>79</v>
       </c>
       <c r="AA77" t="s" s="2">
         <v>79</v>
@@ -10718,21 +10917,21 @@
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>448</v>
+        <v>79</v>
       </c>
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10743,7 +10942,7 @@
         <v>77</v>
       </c>
       <c r="G78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H78" t="s" s="2">
         <v>79</v>
@@ -10755,13 +10954,13 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>229</v>
+        <v>124</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>450</v>
+        <v>125</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="N78" s="2"/>
       <c r="O78" s="2"/>
@@ -10788,13 +10987,13 @@
         <v>79</v>
       </c>
       <c r="X78" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>452</v>
+        <v>79</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>453</v>
+        <v>79</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>79</v>
@@ -10812,43 +11011,43 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>449</v>
+        <v>127</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH78" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ78" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>454</v>
+        <v>128</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>455</v>
+        <v>79</v>
       </c>
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>456</v>
+        <v>445</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10867,15 +11066,17 @@
         <v>79</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>457</v>
+        <v>132</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>458</v>
-      </c>
-      <c r="N79" s="2"/>
+        <v>133</v>
+      </c>
+      <c r="N79" t="s" s="2">
+        <v>134</v>
+      </c>
       <c r="O79" s="2"/>
       <c r="P79" t="s" s="2">
         <v>79</v>
@@ -10900,13 +11101,13 @@
         <v>79</v>
       </c>
       <c r="X79" t="s" s="2">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="Y79" t="s" s="2">
-        <v>459</v>
+        <v>79</v>
       </c>
       <c r="Z79" t="s" s="2">
-        <v>460</v>
+        <v>79</v>
       </c>
       <c r="AA79" t="s" s="2">
         <v>79</v>
@@ -10924,7 +11125,7 @@
         <v>79</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>456</v>
+        <v>138</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>77</v>
@@ -10936,59 +11137,63 @@
         <v>79</v>
       </c>
       <c r="AJ79" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>461</v>
+        <v>128</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN79" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>463</v>
+        <v>446</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>423</v>
+        <v>131</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>464</v>
+        <v>197</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>465</v>
-      </c>
-      <c r="N80" s="2"/>
-      <c r="O80" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="N80" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O80" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P80" t="s" s="2">
         <v>79</v>
       </c>
@@ -11036,47 +11241,47 @@
         <v>79</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>463</v>
+        <v>199</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH80" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>466</v>
+        <v>147</v>
       </c>
       <c r="AM80" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>467</v>
+        <v>79</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
-        <v>79</v>
+        <v>448</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="G81" t="s" s="2">
         <v>87</v>
@@ -11088,18 +11293,20 @@
         <v>79</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>229</v>
+        <v>449</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>470</v>
-      </c>
-      <c r="N81" s="2"/>
+        <v>451</v>
+      </c>
+      <c r="N81" t="s" s="2">
+        <v>430</v>
+      </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
         <v>79</v>
@@ -11124,13 +11331,13 @@
         <v>79</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>471</v>
+        <v>79</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>79</v>
@@ -11148,10 +11355,10 @@
         <v>79</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>77</v>
+        <v>87</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>87</v>
@@ -11163,24 +11370,24 @@
         <v>99</v>
       </c>
       <c r="AK81" t="s" s="2">
-        <v>79</v>
+        <v>452</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>473</v>
+        <v>453</v>
       </c>
       <c r="AM81" t="s" s="2">
-        <v>79</v>
+        <v>435</v>
       </c>
       <c r="AN81" t="s" s="2">
-        <v>474</v>
+        <v>454</v>
       </c>
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11191,7 +11398,7 @@
         <v>77</v>
       </c>
       <c r="G82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H82" t="s" s="2">
         <v>79</v>
@@ -11203,17 +11410,15 @@
         <v>79</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>476</v>
+        <v>456</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="N82" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="N82" s="2"/>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
         <v>79</v>
@@ -11238,13 +11443,13 @@
         <v>79</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>79</v>
+        <v>458</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>79</v>
+        <v>459</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>79</v>
@@ -11262,13 +11467,13 @@
         <v>79</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>475</v>
+        <v>455</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH82" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI82" t="s" s="2">
         <v>79</v>
@@ -11280,7 +11485,7 @@
         <v>79</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>479</v>
+        <v>128</v>
       </c>
       <c r="AM82" t="s" s="2">
         <v>79</v>
@@ -11291,10 +11496,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>480</v>
+        <v>460</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11317,13 +11522,13 @@
         <v>79</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>124</v>
+        <v>461</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>125</v>
+        <v>462</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>126</v>
+        <v>463</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11374,7 +11579,7 @@
         <v>79</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>127</v>
+        <v>460</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>77</v>
@@ -11386,13 +11591,13 @@
         <v>79</v>
       </c>
       <c r="AJ83" t="s" s="2">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="AK83" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>128</v>
+        <v>464</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>79</v>
@@ -11403,21 +11608,21 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>481</v>
+        <v>465</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
-        <v>130</v>
+        <v>79</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G84" t="s" s="2">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="H84" t="s" s="2">
         <v>79</v>
@@ -11429,16 +11634,16 @@
         <v>79</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>131</v>
+        <v>466</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>132</v>
+        <v>467</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>133</v>
+        <v>468</v>
       </c>
       <c r="N84" t="s" s="2">
-        <v>134</v>
+        <v>469</v>
       </c>
       <c r="O84" s="2"/>
       <c r="P84" t="s" s="2">
@@ -11488,7 +11693,7 @@
         <v>79</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>138</v>
+        <v>465</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>77</v>
@@ -11500,13 +11705,13 @@
         <v>79</v>
       </c>
       <c r="AJ84" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK84" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>128</v>
+        <v>470</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>79</v>
@@ -11517,46 +11722,44 @@
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
-        <v>196</v>
+        <v>79</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="H85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>131</v>
+        <v>189</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>197</v>
+        <v>472</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>198</v>
+        <v>473</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="O85" t="s" s="2">
-        <v>168</v>
-      </c>
+        <v>474</v>
+      </c>
+      <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
         <v>79</v>
       </c>
@@ -11604,25 +11807,25 @@
         <v>79</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>199</v>
+        <v>471</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH85" t="s" s="2">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="AI85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>139</v>
+        <v>99</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>147</v>
+        <v>475</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>79</v>
@@ -11633,10 +11836,10 @@
     </row>
     <row r="86" hidden="true">
       <c r="A86" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11644,7 +11847,7 @@
       </c>
       <c r="E86" s="2"/>
       <c r="F86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="G86" t="s" s="2">
         <v>87</v>
@@ -11659,13 +11862,13 @@
         <v>79</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>484</v>
+        <v>124</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>485</v>
+        <v>125</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>486</v>
+        <v>126</v>
       </c>
       <c r="N86" s="2"/>
       <c r="O86" s="2"/>
@@ -11716,10 +11919,10 @@
         <v>79</v>
       </c>
       <c r="AF86" t="s" s="2">
-        <v>483</v>
+        <v>127</v>
       </c>
       <c r="AG86" t="s" s="2">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="AH86" t="s" s="2">
         <v>87</v>
@@ -11728,38 +11931,38 @@
         <v>79</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="AK86" t="s" s="2">
-        <v>487</v>
+        <v>79</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>341</v>
+        <v>128</v>
       </c>
       <c r="AM86" t="s" s="2">
-        <v>488</v>
+        <v>79</v>
       </c>
       <c r="AN86" t="s" s="2">
-        <v>489</v>
+        <v>79</v>
       </c>
     </row>
     <row r="87" hidden="true">
       <c r="A87" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>490</v>
+        <v>477</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
-        <v>79</v>
+        <v>130</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H87" t="s" s="2">
         <v>79</v>
@@ -11771,16 +11974,16 @@
         <v>79</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>491</v>
+        <v>132</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>492</v>
+        <v>133</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>493</v>
+        <v>134</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" t="s" s="2">
@@ -11806,13 +12009,13 @@
         <v>79</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>494</v>
+        <v>79</v>
       </c>
       <c r="Z87" t="s" s="2">
-        <v>495</v>
+        <v>79</v>
       </c>
       <c r="AA87" t="s" s="2">
         <v>79</v>
@@ -11830,25 +12033,25 @@
         <v>79</v>
       </c>
       <c r="AF87" t="s" s="2">
-        <v>490</v>
+        <v>138</v>
       </c>
       <c r="AG87" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH87" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL87" t="s" s="2">
-        <v>496</v>
+        <v>128</v>
       </c>
       <c r="AM87" t="s" s="2">
         <v>79</v>
@@ -11859,44 +12062,46 @@
     </row>
     <row r="88" hidden="true">
       <c r="A88" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>497</v>
+        <v>478</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="G88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="H88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>229</v>
+        <v>131</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>498</v>
+        <v>197</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>499</v>
+        <v>198</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>500</v>
-      </c>
-      <c r="O88" s="2"/>
+        <v>134</v>
+      </c>
+      <c r="O88" t="s" s="2">
+        <v>168</v>
+      </c>
       <c r="P88" t="s" s="2">
         <v>79</v>
       </c>
@@ -11920,13 +12125,13 @@
         <v>79</v>
       </c>
       <c r="X88" t="s" s="2">
-        <v>233</v>
+        <v>79</v>
       </c>
       <c r="Y88" t="s" s="2">
-        <v>501</v>
+        <v>79</v>
       </c>
       <c r="Z88" t="s" s="2">
-        <v>502</v>
+        <v>79</v>
       </c>
       <c r="AA88" t="s" s="2">
         <v>79</v>
@@ -11944,25 +12149,25 @@
         <v>79</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>497</v>
+        <v>199</v>
       </c>
       <c r="AG88" t="s" s="2">
         <v>77</v>
       </c>
       <c r="AH88" t="s" s="2">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="AI88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>99</v>
+        <v>139</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL88" t="s" s="2">
-        <v>79</v>
+        <v>147</v>
       </c>
       <c r="AM88" t="s" s="2">
         <v>79</v>
@@ -11973,10 +12178,10 @@
     </row>
     <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11999,13 +12204,13 @@
         <v>79</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>202</v>
+        <v>171</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>504</v>
+        <v>480</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>505</v>
+        <v>481</v>
       </c>
       <c r="N89" s="2"/>
       <c r="O89" s="2"/>
@@ -12056,7 +12261,7 @@
         <v>79</v>
       </c>
       <c r="AF89" t="s" s="2">
-        <v>503</v>
+        <v>479</v>
       </c>
       <c r="AG89" t="s" s="2">
         <v>77</v>
@@ -12074,21 +12279,21 @@
         <v>79</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>334</v>
+        <v>175</v>
       </c>
       <c r="AM89" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN89" t="s" s="2">
-        <v>79</v>
+        <v>482</v>
       </c>
     </row>
     <row r="90" hidden="true">
       <c r="A90" t="s" s="2">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -12102,7 +12307,7 @@
         <v>87</v>
       </c>
       <c r="H90" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="I90" t="s" s="2">
         <v>79</v>
@@ -12111,13 +12316,13 @@
         <v>79</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>507</v>
+        <v>484</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>508</v>
+        <v>485</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>509</v>
+        <v>486</v>
       </c>
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
@@ -12168,7 +12373,7 @@
         <v>79</v>
       </c>
       <c r="AF90" t="s" s="2">
-        <v>506</v>
+        <v>483</v>
       </c>
       <c r="AG90" t="s" s="2">
         <v>77</v>
@@ -12183,24 +12388,24 @@
         <v>99</v>
       </c>
       <c r="AK90" t="s" s="2">
-        <v>340</v>
+        <v>79</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>510</v>
+        <v>487</v>
       </c>
       <c r="AM90" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AN90" t="s" s="2">
-        <v>511</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" hidden="true">
       <c r="A91" t="s" s="2">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -12223,17 +12428,15 @@
         <v>79</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>513</v>
+        <v>229</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>514</v>
+        <v>489</v>
       </c>
       <c r="M91" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="N91" t="s" s="2">
-        <v>516</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="N91" s="2"/>
       <c r="O91" s="2"/>
       <c r="P91" t="s" s="2">
         <v>79</v>
@@ -12258,13 +12461,13 @@
         <v>79</v>
       </c>
       <c r="X91" t="s" s="2">
-        <v>79</v>
+        <v>111</v>
       </c>
       <c r="Y91" t="s" s="2">
-        <v>79</v>
+        <v>491</v>
       </c>
       <c r="Z91" t="s" s="2">
-        <v>79</v>
+        <v>492</v>
       </c>
       <c r="AA91" t="s" s="2">
         <v>79</v>
@@ -12282,7 +12485,7 @@
         <v>79</v>
       </c>
       <c r="AF91" t="s" s="2">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="AG91" t="s" s="2">
         <v>77</v>
@@ -12297,20 +12500,1830 @@
         <v>99</v>
       </c>
       <c r="AK91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL91" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AM91" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN91" t="s" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="92" hidden="true">
+      <c r="A92" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="B92" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E92" s="2"/>
+      <c r="F92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K92" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L92" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="N92" s="2"/>
+      <c r="O92" s="2"/>
+      <c r="P92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q92" s="2"/>
+      <c r="R92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X92" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y92" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Z92" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AA92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF92" t="s" s="2">
+        <v>495</v>
+      </c>
+      <c r="AG92" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH92" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ92" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL92" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM92" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN92" t="s" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="93" hidden="true">
+      <c r="A93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="B93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E93" s="2"/>
+      <c r="F93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K93" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L93" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="M93" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="N93" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="O93" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="P93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q93" s="2"/>
+      <c r="R93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X93" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y93" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="Z93" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="AA93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF93" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="AG93" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH93" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ93" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL93" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AM93" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN93" t="s" s="2">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="94" hidden="true">
+      <c r="A94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="B94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E94" s="2"/>
+      <c r="F94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K94" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L94" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="M94" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="N94" s="2"/>
+      <c r="O94" s="2"/>
+      <c r="P94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q94" s="2"/>
+      <c r="R94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X94" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y94" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="Z94" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="AA94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF94" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AG94" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH94" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ94" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL94" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="AM94" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN94" t="s" s="2">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="95" hidden="true">
+      <c r="A95" t="s" s="2">
         <v>517</v>
       </c>
-      <c r="AL91" t="s" s="2">
+      <c r="B95" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E95" s="2"/>
+      <c r="F95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K95" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L95" t="s" s="2">
         <v>518</v>
       </c>
-      <c r="AM91" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AN91" t="s" s="2">
+      <c r="M95" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="N95" s="2"/>
+      <c r="O95" s="2"/>
+      <c r="P95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q95" s="2"/>
+      <c r="R95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X95" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="Y95" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="Z95" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AA95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF95" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AG95" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH95" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ95" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL95" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="AM95" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN95" t="s" s="2">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="96" hidden="true">
+      <c r="A96" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="B96" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E96" s="2"/>
+      <c r="F96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K96" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="L96" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="M96" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="N96" s="2"/>
+      <c r="O96" s="2"/>
+      <c r="P96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q96" s="2"/>
+      <c r="R96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF96" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="AG96" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH96" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ96" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL96" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AM96" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN96" t="s" s="2">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="97" hidden="true">
+      <c r="A97" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B97" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E97" s="2"/>
+      <c r="F97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K97" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L97" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="M97" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="N97" s="2"/>
+      <c r="O97" s="2"/>
+      <c r="P97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q97" s="2"/>
+      <c r="R97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X97" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y97" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="Z97" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="AA97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF97" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="AG97" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH97" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ97" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL97" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="AM97" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN97" t="s" s="2">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="98" hidden="true">
+      <c r="A98" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="B98" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E98" s="2"/>
+      <c r="F98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K98" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="L98" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="M98" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="N98" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="O98" s="2"/>
+      <c r="P98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q98" s="2"/>
+      <c r="R98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF98" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AG98" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH98" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ98" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL98" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="AM98" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN98" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="99" hidden="true">
+      <c r="A99" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="B99" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E99" s="2"/>
+      <c r="F99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K99" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="L99" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="M99" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="N99" s="2"/>
+      <c r="O99" s="2"/>
+      <c r="P99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q99" s="2"/>
+      <c r="R99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF99" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="AG99" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH99" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL99" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM99" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN99" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="100" hidden="true">
+      <c r="A100" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="B100" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K100" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L100" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="M100" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="N100" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O100" s="2"/>
+      <c r="P100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q100" s="2"/>
+      <c r="R100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF100" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="AG100" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH100" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ100" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL100" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AM100" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN100" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="101" hidden="true">
+      <c r="A101" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="B101" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="E101" s="2"/>
+      <c r="F101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="H101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="J101" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="K101" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="L101" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="M101" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="N101" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="O101" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="P101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q101" s="2"/>
+      <c r="R101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF101" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AG101" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH101" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AI101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ101" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AK101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL101" t="s" s="2">
+        <v>147</v>
+      </c>
+      <c r="AM101" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN101" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="102" hidden="true">
+      <c r="A102" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="B102" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E102" s="2"/>
+      <c r="F102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="G102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K102" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="L102" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="M102" t="s" s="2">
+        <v>547</v>
+      </c>
+      <c r="N102" s="2"/>
+      <c r="O102" s="2"/>
+      <c r="P102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q102" s="2"/>
+      <c r="R102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF102" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AG102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AH102" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI102" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ102" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK102" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AL102" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AM102" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="AN102" t="s" s="2">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="103" hidden="true">
+      <c r="A103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="B103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E103" s="2"/>
+      <c r="F103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K103" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="L103" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="M103" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="N103" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="O103" s="2"/>
+      <c r="P103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q103" s="2"/>
+      <c r="R103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X103" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="Y103" t="s" s="2">
+        <v>555</v>
+      </c>
+      <c r="Z103" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AA103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF103" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AG103" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH103" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ103" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL103" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="AM103" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN103" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="104" hidden="true">
+      <c r="A104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="B104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E104" s="2"/>
+      <c r="F104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K104" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="L104" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="M104" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="N104" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="O104" s="2"/>
+      <c r="P104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q104" s="2"/>
+      <c r="R104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X104" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="Y104" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="Z104" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AA104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF104" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="AG104" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH104" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ104" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM104" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN104" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="105" hidden="true">
+      <c r="A105" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="B105" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E105" s="2"/>
+      <c r="F105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K105" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>565</v>
+      </c>
+      <c r="M105" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="N105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q105" s="2"/>
+      <c r="R105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF105" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AG105" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH105" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ105" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL105" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AM105" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN105" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="106" hidden="true">
+      <c r="A106" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="B106" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E106" s="2"/>
+      <c r="F106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H106" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="I106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K106" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="L106" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="M106" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="N106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q106" s="2"/>
+      <c r="R106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF106" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="AG106" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH106" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ106" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK106" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AL106" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="AM106" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN106" t="s" s="2">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="107" hidden="true">
+      <c r="A107" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="B107" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E107" s="2"/>
+      <c r="F107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G107" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="H107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K107" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="L107" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="M107" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="N107" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="O107" s="2"/>
+      <c r="P107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q107" s="2"/>
+      <c r="R107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF107" t="s" s="2">
+        <v>573</v>
+      </c>
+      <c r="AG107" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH107" t="s" s="2">
+        <v>87</v>
+      </c>
+      <c r="AI107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ107" t="s" s="2">
+        <v>99</v>
+      </c>
+      <c r="AK107" t="s" s="2">
+        <v>578</v>
+      </c>
+      <c r="AL107" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AM107" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AN107" t="s" s="2">
         <v>79</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AN91">
+  <autoFilter ref="A1:AN107">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -12320,7 +14333,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI90">
+  <conditionalFormatting sqref="A2:AI106">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
